--- a/KA220-E_AppForm.xlsx
+++ b/KA220-E_AppForm.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brikenagarunja/Desktop/Bandi/Erasmus'26/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gianfrancostefani/Documents/ScritturaErasmus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBFA767-EE56-E04E-82A6-AF1FD60C7358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5F43FB-F803-7743-83B8-0AC8CFA520A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="500" windowWidth="25220" windowHeight="17500" xr2:uid="{5AC73B3C-C7D9-944D-9BC5-41E15D6AE944}"/>
+    <workbookView xWindow="860" yWindow="500" windowWidth="20660" windowHeight="18960" xr2:uid="{5AC73B3C-C7D9-944D-9BC5-41E15D6AE944}"/>
   </bookViews>
   <sheets>
     <sheet name="Form" sheetId="2" r:id="rId1"/>
-    <sheet name="WP1" sheetId="4" r:id="rId2"/>
-    <sheet name="WP2" sheetId="6" r:id="rId3"/>
-    <sheet name="Other WP" sheetId="9" r:id="rId4"/>
-    <sheet name="Impact" sheetId="7" r:id="rId5"/>
-    <sheet name="Summary" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId2"/>
+    <sheet name="WP1" sheetId="4" r:id="rId3"/>
+    <sheet name="WP2" sheetId="6" r:id="rId4"/>
+    <sheet name="Other WP" sheetId="9" r:id="rId5"/>
+    <sheet name="Impact" sheetId="7" r:id="rId6"/>
+    <sheet name="Summary" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -500,6 +501,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -536,15 +543,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -560,9 +561,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -600,7 +601,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -706,7 +707,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -848,7 +849,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -862,7 +863,7 @@
   <dimension ref="A2:D457"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -874,10 +875,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="6" t="s">
         <v>95</v>
       </c>
@@ -940,16 +941,16 @@
       <c r="B10" s="3"/>
     </row>
     <row r="12" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="21"/>
+      <c r="B12" s="23"/>
     </row>
     <row r="13" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="23"/>
+      <c r="B13" s="25"/>
     </row>
     <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
@@ -981,10 +982,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="21"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="8" t="s">
         <v>1</v>
       </c>
@@ -998,19 +999,19 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="11"/>
     </row>
     <row r="21" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="11"/>
     </row>
     <row r="22" spans="1:4" ht="380" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="4"/>
@@ -1023,7 +1024,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="11"/>
@@ -1036,7 +1037,7 @@
       <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4" ht="380" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="20" t="s">
         <v>22</v>
       </c>
       <c r="B25" s="3"/>
@@ -1049,7 +1050,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="380" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="3"/>
@@ -1062,7 +1063,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="380" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B27" s="3"/>
@@ -1075,7 +1076,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="380" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="3"/>
@@ -1088,7 +1089,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="380" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="20" t="s">
         <v>26</v>
       </c>
       <c r="B29" s="3"/>
@@ -1106,7 +1107,7 @@
       </c>
       <c r="B30" s="11"/>
     </row>
-    <row r="31" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>28</v>
       </c>
@@ -1661,13 +1662,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08454C2E-F013-A445-B0D9-ABF893A36DA8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED02F9B4-DC53-4F4C-B051-5451A9BCB909}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A2:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -1683,20 +1698,20 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
     </row>
     <row r="5" spans="1:4" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
@@ -1820,7 +1835,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11FCC09C-13B4-254B-A516-FC40D2E1E367}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -1854,12 +1869,12 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
     </row>
     <row r="6" spans="1:5" ht="77" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
@@ -1946,20 +1961,20 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
     </row>
     <row r="13" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
     </row>
     <row r="14" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
@@ -2122,10 +2137,10 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="29"/>
+      <c r="B37" s="31"/>
     </row>
     <row r="38" spans="1:5" ht="76" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
@@ -2193,7 +2208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58073176-5D38-584D-AD89-A00010199696}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2207,7 +2222,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42EBF01D-D8D9-9240-979A-6B583B398BB1}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -2302,7 +2317,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292CB886-524F-C643-B09A-5D0D1ED77427}">
   <sheetPr>
     <tabColor theme="3" tint="0.79998168889431442"/>
@@ -2323,12 +2338,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
     </row>
     <row r="3" spans="1:4" ht="114" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
@@ -2370,12 +2385,12 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="29"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="31"/>
     </row>
     <row r="7" spans="1:4" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
